--- a/refac005.xlsx
+++ b/refac005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t xml:space="preserve">  gen</t>
   </si>
@@ -9513,6 +9513,5087 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$B$2:$B$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>-6152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9690</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9690</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10655</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15880</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16539</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19560</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22790</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40449</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47109</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51272</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56317</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58793</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62064</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65435</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67832</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>69480</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76913</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>80550</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82695</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85140</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87245</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87245</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92265</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>92655</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>92695</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92990</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93965</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94720</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>95025</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95415</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95445</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95515</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95610</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95690</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95705</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95890</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96865</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96880</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96920</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>97080</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>97105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>97105</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97155</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97170</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97185</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97210</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97235</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97320</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97320</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97380</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> last</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$2:$C$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>-30765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5580</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10688</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11415</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11820</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12646</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13842</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14755</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17080</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20325</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36076</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40792</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46164</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48232</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51804</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55332</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57972</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60058</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61531</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62752</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65331</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66595</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67592</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69622</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72262</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76181</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78765</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82370</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83807</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84584</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85210</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85550</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85960</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86330</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87060</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89158</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>91305</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92115</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92510</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92955</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93975</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94645</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95210</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95320</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95420</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95535</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95630</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95680</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>95735</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95870</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95960</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95970</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96120</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96570</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96670</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96690</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96810</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96850</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96865</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96880</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>96900</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97035</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97150</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97165</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97180</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97190</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97205</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97210</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97235</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97250</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97340</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97380</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="90663936"/>
+        <c:axId val="90662400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90663936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90662400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90662400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90663936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vari1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$E$2:$E$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.85899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.73699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.263000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.938999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.909000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.120999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.616</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.77</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.504999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.605999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.706999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.96</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62.47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.86</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51.384</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.94</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.97</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.747</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.878</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.35</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46.72</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.262999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.86</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43.070999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.99</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39.49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.07</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37.273000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>37.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38.595999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36.723999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37.07</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31.05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.42</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.82</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.27</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.67</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21.626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25.24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>24.59</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23.657</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25.84</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.56</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>15.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.04</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>23.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23.71</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>22.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>23.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>19.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>20.565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>21.01</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>21.26</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>22.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>22.152999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21.303000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.602</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.412000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.090999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13.292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91010176"/>
+        <c:axId val="91008384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91010176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91008384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91008384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91010176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$B$2:$B$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>-6152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9690</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9690</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10655</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14127</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15880</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16539</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19560</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22790</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40449</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47109</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51272</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56317</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58793</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62064</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65435</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67832</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67832</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>69480</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72830</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76913</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>80550</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82695</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85140</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87245</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87245</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89950</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92265</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>92655</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>92695</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92990</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93965</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94720</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>95025</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95415</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>95445</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95515</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95610</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95690</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95705</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95890</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96865</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96880</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96920</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>97080</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>97105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>97105</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97155</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97170</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97185</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97210</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97235</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97320</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97320</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97380</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> last</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$A$2:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3061</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$2:$C$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>-30765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5580</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10688</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11415</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11820</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12646</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13842</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14755</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17080</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20325</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32555</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36076</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40792</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46164</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48232</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51804</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55332</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57972</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60058</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61531</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62752</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65331</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66595</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67592</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69622</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72262</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76181</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78765</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82370</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83807</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84584</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85210</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85550</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85960</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86330</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87060</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89158</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>91305</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>92115</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92510</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>92955</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93975</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94645</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>95020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95210</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95320</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95420</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>95535</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95630</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>95680</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>95735</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95870</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95960</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95970</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96120</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96570</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96670</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96680</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96690</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96810</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96845</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96850</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96865</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96880</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96890</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>96900</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>96910</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>97035</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>97115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>97150</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>97165</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>97180</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>97190</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>97205</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97210</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97225</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>97235</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>97250</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>97260</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>97270</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>97280</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>97290</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97330</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>97340</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>97350</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97360</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97380</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>97385</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>97385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92520832"/>
+        <c:axId val="92498560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92520832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92498560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92498560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="98000"/>
+          <c:min val="94000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92520832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9591,6 +14672,101 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9897,8 +15073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15028,13 +20204,2669 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>-6152</v>
+      </c>
+      <c r="C2">
+        <v>-30765</v>
+      </c>
+      <c r="D2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E2">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>-3502</v>
+      </c>
+      <c r="C3">
+        <v>-17270</v>
+      </c>
+      <c r="D3">
+        <v>0.99</v>
+      </c>
+      <c r="E3">
+        <v>102.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>-1617</v>
+      </c>
+      <c r="C4">
+        <v>-11729</v>
+      </c>
+      <c r="D4">
+        <v>0.98</v>
+      </c>
+      <c r="E4">
+        <v>101.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>1200</v>
+      </c>
+      <c r="C5">
+        <v>-7867</v>
+      </c>
+      <c r="D5">
+        <v>0.995</v>
+      </c>
+      <c r="E5">
+        <v>100.85899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
+        <v>-4993</v>
+      </c>
+      <c r="D6">
+        <v>0.96</v>
+      </c>
+      <c r="E6">
+        <v>100.73699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>1580</v>
+      </c>
+      <c r="C7">
+        <v>-3229</v>
+      </c>
+      <c r="D7">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E7">
+        <v>100.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>141</v>
+      </c>
+      <c r="B8">
+        <v>2725</v>
+      </c>
+      <c r="C8">
+        <v>-1719</v>
+      </c>
+      <c r="D8">
+        <v>0.95</v>
+      </c>
+      <c r="E8">
+        <v>98.747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>161</v>
+      </c>
+      <c r="B9">
+        <v>2725</v>
+      </c>
+      <c r="C9">
+        <v>-340</v>
+      </c>
+      <c r="D9">
+        <v>0.88</v>
+      </c>
+      <c r="E9">
+        <v>97.263000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>181</v>
+      </c>
+      <c r="B10">
+        <v>2725</v>
+      </c>
+      <c r="C10">
+        <v>750</v>
+      </c>
+      <c r="D10">
+        <v>0.69</v>
+      </c>
+      <c r="E10">
+        <v>95.253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11">
+        <v>2725</v>
+      </c>
+      <c r="C11">
+        <v>1580</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
+        <v>92.302999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>221</v>
+      </c>
+      <c r="B12">
+        <v>2987</v>
+      </c>
+      <c r="C12">
+        <v>1950</v>
+      </c>
+      <c r="D12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E12">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>241</v>
+      </c>
+      <c r="B13">
+        <v>4070</v>
+      </c>
+      <c r="C13">
+        <v>2500</v>
+      </c>
+      <c r="D13">
+        <v>0.22</v>
+      </c>
+      <c r="E13">
+        <v>91.938999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>261</v>
+      </c>
+      <c r="B14">
+        <v>5124</v>
+      </c>
+      <c r="C14">
+        <v>2972</v>
+      </c>
+      <c r="D14">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E14">
+        <v>88.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>281</v>
+      </c>
+      <c r="B15">
+        <v>5490</v>
+      </c>
+      <c r="C15">
+        <v>4050</v>
+      </c>
+      <c r="D15">
+        <v>0.17</v>
+      </c>
+      <c r="E15">
+        <v>87.909000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>301</v>
+      </c>
+      <c r="B16">
+        <v>9690</v>
+      </c>
+      <c r="C16">
+        <v>4080</v>
+      </c>
+      <c r="D16">
+        <v>0.52</v>
+      </c>
+      <c r="E16">
+        <v>83.459000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>9690</v>
+      </c>
+      <c r="C17">
+        <v>5420</v>
+      </c>
+      <c r="D17">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E17">
+        <v>82.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>341</v>
+      </c>
+      <c r="B18">
+        <v>10220</v>
+      </c>
+      <c r="C18">
+        <v>5580</v>
+      </c>
+      <c r="D18">
+        <v>0.24</v>
+      </c>
+      <c r="E18">
+        <v>86.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>361</v>
+      </c>
+      <c r="B19">
+        <v>10220</v>
+      </c>
+      <c r="C19">
+        <v>9700</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>82.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>381</v>
+      </c>
+      <c r="B20">
+        <v>10220</v>
+      </c>
+      <c r="C20">
+        <v>10220</v>
+      </c>
+      <c r="D20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>81.540000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>401</v>
+      </c>
+      <c r="B21">
+        <v>10315</v>
+      </c>
+      <c r="C21">
+        <v>10220</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+      <c r="E21">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>421</v>
+      </c>
+      <c r="B22">
+        <v>10655</v>
+      </c>
+      <c r="C22">
+        <v>10220</v>
+      </c>
+      <c r="D22">
+        <v>0.02</v>
+      </c>
+      <c r="E22">
+        <v>83.120999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>441</v>
+      </c>
+      <c r="B23">
+        <v>10655</v>
+      </c>
+      <c r="C23">
+        <v>10220</v>
+      </c>
+      <c r="D23">
+        <v>0.02</v>
+      </c>
+      <c r="E23">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>461</v>
+      </c>
+      <c r="B24">
+        <v>11230</v>
+      </c>
+      <c r="C24">
+        <v>10220</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>481</v>
+      </c>
+      <c r="B25">
+        <v>11230</v>
+      </c>
+      <c r="C25">
+        <v>10220</v>
+      </c>
+      <c r="D25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E25">
+        <v>82.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>501</v>
+      </c>
+      <c r="B26">
+        <v>11230</v>
+      </c>
+      <c r="C26">
+        <v>10220</v>
+      </c>
+      <c r="D26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E26">
+        <v>84.585999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>521</v>
+      </c>
+      <c r="B27">
+        <v>11398</v>
+      </c>
+      <c r="C27">
+        <v>10220</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E27">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>541</v>
+      </c>
+      <c r="B28">
+        <v>11535</v>
+      </c>
+      <c r="C28">
+        <v>10220</v>
+      </c>
+      <c r="D28">
+        <v>0.12</v>
+      </c>
+      <c r="E28">
+        <v>84.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>561</v>
+      </c>
+      <c r="B29">
+        <v>12010</v>
+      </c>
+      <c r="C29">
+        <v>10220</v>
+      </c>
+      <c r="D29">
+        <v>0.31</v>
+      </c>
+      <c r="E29">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>581</v>
+      </c>
+      <c r="B30">
+        <v>14127</v>
+      </c>
+      <c r="C30">
+        <v>10688</v>
+      </c>
+      <c r="D30">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E30">
+        <v>58.616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>601</v>
+      </c>
+      <c r="B31">
+        <v>14127</v>
+      </c>
+      <c r="C31">
+        <v>11415</v>
+      </c>
+      <c r="D31">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E31">
+        <v>61.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>621</v>
+      </c>
+      <c r="B32">
+        <v>14127</v>
+      </c>
+      <c r="C32">
+        <v>11820</v>
+      </c>
+      <c r="D32">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E32">
+        <v>64.77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>641</v>
+      </c>
+      <c r="B33">
+        <v>15880</v>
+      </c>
+      <c r="C33">
+        <v>12646</v>
+      </c>
+      <c r="D33">
+        <v>0.84</v>
+      </c>
+      <c r="E33">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>661</v>
+      </c>
+      <c r="B34">
+        <v>16539</v>
+      </c>
+      <c r="C34">
+        <v>13842</v>
+      </c>
+      <c r="D34">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E34">
+        <v>69.504999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>681</v>
+      </c>
+      <c r="B35">
+        <v>19560</v>
+      </c>
+      <c r="C35">
+        <v>14755</v>
+      </c>
+      <c r="D35">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="E35">
+        <v>71.326999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>701</v>
+      </c>
+      <c r="B36">
+        <v>22790</v>
+      </c>
+      <c r="C36">
+        <v>15535</v>
+      </c>
+      <c r="D36">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E36">
+        <v>68.414000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>721</v>
+      </c>
+      <c r="B37">
+        <v>26358</v>
+      </c>
+      <c r="C37">
+        <v>17080</v>
+      </c>
+      <c r="D37">
+        <v>0.94</v>
+      </c>
+      <c r="E37">
+        <v>69.430000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>741</v>
+      </c>
+      <c r="B38">
+        <v>29236</v>
+      </c>
+      <c r="C38">
+        <v>20325</v>
+      </c>
+      <c r="D38">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E38">
+        <v>64.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>761</v>
+      </c>
+      <c r="B39">
+        <v>36000</v>
+      </c>
+      <c r="C39">
+        <v>24603</v>
+      </c>
+      <c r="D39">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E39">
+        <v>67.605999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>781</v>
+      </c>
+      <c r="B40">
+        <v>40449</v>
+      </c>
+      <c r="C40">
+        <v>28114</v>
+      </c>
+      <c r="D40">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E40">
+        <v>66.706999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>801</v>
+      </c>
+      <c r="B41">
+        <v>44272</v>
+      </c>
+      <c r="C41">
+        <v>32555</v>
+      </c>
+      <c r="D41">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E41">
+        <v>64.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>821</v>
+      </c>
+      <c r="B42">
+        <v>47109</v>
+      </c>
+      <c r="C42">
+        <v>36076</v>
+      </c>
+      <c r="D42">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E42">
+        <v>65.555999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>841</v>
+      </c>
+      <c r="B43">
+        <v>51272</v>
+      </c>
+      <c r="C43">
+        <v>40792</v>
+      </c>
+      <c r="D43">
+        <v>0.99</v>
+      </c>
+      <c r="E43">
+        <v>65.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>861</v>
+      </c>
+      <c r="B44">
+        <v>51272</v>
+      </c>
+      <c r="C44">
+        <v>43798</v>
+      </c>
+      <c r="D44">
+        <v>0.98</v>
+      </c>
+      <c r="E44">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>881</v>
+      </c>
+      <c r="B45">
+        <v>56317</v>
+      </c>
+      <c r="C45">
+        <v>46164</v>
+      </c>
+      <c r="D45">
+        <v>0.99</v>
+      </c>
+      <c r="E45">
+        <v>64.484999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>901</v>
+      </c>
+      <c r="B46">
+        <v>56317</v>
+      </c>
+      <c r="C46">
+        <v>48232</v>
+      </c>
+      <c r="D46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E46">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>921</v>
+      </c>
+      <c r="B47">
+        <v>58793</v>
+      </c>
+      <c r="C47">
+        <v>50231</v>
+      </c>
+      <c r="D47">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E47">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>941</v>
+      </c>
+      <c r="B48">
+        <v>60381</v>
+      </c>
+      <c r="C48">
+        <v>51804</v>
+      </c>
+      <c r="D48">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E48">
+        <v>57.677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>961</v>
+      </c>
+      <c r="B49">
+        <v>62064</v>
+      </c>
+      <c r="C49">
+        <v>53098</v>
+      </c>
+      <c r="D49">
+        <v>0.98</v>
+      </c>
+      <c r="E49">
+        <v>56.194000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>981</v>
+      </c>
+      <c r="B50">
+        <v>63620</v>
+      </c>
+      <c r="C50">
+        <v>55332</v>
+      </c>
+      <c r="D50">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E50">
+        <v>54.292999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1001</v>
+      </c>
+      <c r="B51">
+        <v>65435</v>
+      </c>
+      <c r="C51">
+        <v>57972</v>
+      </c>
+      <c r="D51">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E51">
+        <v>51.384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1021</v>
+      </c>
+      <c r="B52">
+        <v>67832</v>
+      </c>
+      <c r="C52">
+        <v>60058</v>
+      </c>
+      <c r="D52">
+        <v>0.95</v>
+      </c>
+      <c r="E52">
+        <v>52.332999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1041</v>
+      </c>
+      <c r="B53">
+        <v>67832</v>
+      </c>
+      <c r="C53">
+        <v>61531</v>
+      </c>
+      <c r="D53">
+        <v>0.95</v>
+      </c>
+      <c r="E53">
+        <v>49.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1061</v>
+      </c>
+      <c r="B54">
+        <v>69480</v>
+      </c>
+      <c r="C54">
+        <v>62752</v>
+      </c>
+      <c r="D54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E54">
+        <v>49.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1081</v>
+      </c>
+      <c r="B55">
+        <v>72830</v>
+      </c>
+      <c r="C55">
+        <v>64009</v>
+      </c>
+      <c r="D55">
+        <v>0.97</v>
+      </c>
+      <c r="E55">
+        <v>50.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1101</v>
+      </c>
+      <c r="B56">
+        <v>72830</v>
+      </c>
+      <c r="C56">
+        <v>65331</v>
+      </c>
+      <c r="D56">
+        <v>0.97</v>
+      </c>
+      <c r="E56">
+        <v>49.646000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1121</v>
+      </c>
+      <c r="B57">
+        <v>72830</v>
+      </c>
+      <c r="C57">
+        <v>66595</v>
+      </c>
+      <c r="D57">
+        <v>0.96</v>
+      </c>
+      <c r="E57">
+        <v>48.61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1141</v>
+      </c>
+      <c r="B58">
+        <v>76913</v>
+      </c>
+      <c r="C58">
+        <v>67592</v>
+      </c>
+      <c r="D58">
+        <v>0.97</v>
+      </c>
+      <c r="E58">
+        <v>48.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1161</v>
+      </c>
+      <c r="B59">
+        <v>80550</v>
+      </c>
+      <c r="C59">
+        <v>69622</v>
+      </c>
+      <c r="D59">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E59">
+        <v>47.747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1181</v>
+      </c>
+      <c r="B60">
+        <v>82695</v>
+      </c>
+      <c r="C60">
+        <v>72262</v>
+      </c>
+      <c r="D60">
+        <v>0.98</v>
+      </c>
+      <c r="E60">
+        <v>47.878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1201</v>
+      </c>
+      <c r="B61">
+        <v>85140</v>
+      </c>
+      <c r="C61">
+        <v>76181</v>
+      </c>
+      <c r="D61">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E61">
+        <v>47.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1221</v>
+      </c>
+      <c r="B62">
+        <v>87245</v>
+      </c>
+      <c r="C62">
+        <v>78765</v>
+      </c>
+      <c r="D62">
+        <v>0.97</v>
+      </c>
+      <c r="E62">
+        <v>46.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1241</v>
+      </c>
+      <c r="B63">
+        <v>87245</v>
+      </c>
+      <c r="C63">
+        <v>80952</v>
+      </c>
+      <c r="D63">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E63">
+        <v>43.262999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1261</v>
+      </c>
+      <c r="B64">
+        <v>88505</v>
+      </c>
+      <c r="C64">
+        <v>82370</v>
+      </c>
+      <c r="D64">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E64">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1281</v>
+      </c>
+      <c r="B65">
+        <v>88505</v>
+      </c>
+      <c r="C65">
+        <v>83807</v>
+      </c>
+      <c r="D65">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E65">
+        <v>44.765000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1301</v>
+      </c>
+      <c r="B66">
+        <v>88505</v>
+      </c>
+      <c r="C66">
+        <v>84584</v>
+      </c>
+      <c r="D66">
+        <v>0.82</v>
+      </c>
+      <c r="E66">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1321</v>
+      </c>
+      <c r="B67">
+        <v>89950</v>
+      </c>
+      <c r="C67">
+        <v>85210</v>
+      </c>
+      <c r="D67">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E67">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1341</v>
+      </c>
+      <c r="B68">
+        <v>89950</v>
+      </c>
+      <c r="C68">
+        <v>85550</v>
+      </c>
+      <c r="D68">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E68">
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1361</v>
+      </c>
+      <c r="B69">
+        <v>89950</v>
+      </c>
+      <c r="C69">
+        <v>85960</v>
+      </c>
+      <c r="D69">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E69">
+        <v>43.070999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1381</v>
+      </c>
+      <c r="B70">
+        <v>92265</v>
+      </c>
+      <c r="C70">
+        <v>86330</v>
+      </c>
+      <c r="D70">
+        <v>0.82</v>
+      </c>
+      <c r="E70">
+        <v>42.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1401</v>
+      </c>
+      <c r="B71">
+        <v>92655</v>
+      </c>
+      <c r="C71">
+        <v>87060</v>
+      </c>
+      <c r="D71">
+        <v>0.89</v>
+      </c>
+      <c r="E71">
+        <v>44.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1421</v>
+      </c>
+      <c r="B72">
+        <v>92695</v>
+      </c>
+      <c r="C72">
+        <v>89158</v>
+      </c>
+      <c r="D72">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E72">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1441</v>
+      </c>
+      <c r="B73">
+        <v>92990</v>
+      </c>
+      <c r="C73">
+        <v>91305</v>
+      </c>
+      <c r="D73">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E73">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1461</v>
+      </c>
+      <c r="B74">
+        <v>93965</v>
+      </c>
+      <c r="C74">
+        <v>92115</v>
+      </c>
+      <c r="D74">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E74">
+        <v>40.14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1481</v>
+      </c>
+      <c r="B75">
+        <v>94720</v>
+      </c>
+      <c r="C75">
+        <v>92510</v>
+      </c>
+      <c r="D75">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E75">
+        <v>39.646000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1501</v>
+      </c>
+      <c r="B76">
+        <v>95025</v>
+      </c>
+      <c r="C76">
+        <v>92955</v>
+      </c>
+      <c r="D76">
+        <v>0.7</v>
+      </c>
+      <c r="E76">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1521</v>
+      </c>
+      <c r="B77">
+        <v>95415</v>
+      </c>
+      <c r="C77">
+        <v>93975</v>
+      </c>
+      <c r="D77">
+        <v>0.63</v>
+      </c>
+      <c r="E77">
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1541</v>
+      </c>
+      <c r="B78">
+        <v>95445</v>
+      </c>
+      <c r="C78">
+        <v>94645</v>
+      </c>
+      <c r="D78">
+        <v>0.495</v>
+      </c>
+      <c r="E78">
+        <v>37.273000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1561</v>
+      </c>
+      <c r="B79">
+        <v>95515</v>
+      </c>
+      <c r="C79">
+        <v>95020</v>
+      </c>
+      <c r="D79">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E79">
+        <v>37.950000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1581</v>
+      </c>
+      <c r="B80">
+        <v>95610</v>
+      </c>
+      <c r="C80">
+        <v>95210</v>
+      </c>
+      <c r="D80">
+        <v>0.26</v>
+      </c>
+      <c r="E80">
+        <v>37.515000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1601</v>
+      </c>
+      <c r="B81">
+        <v>95690</v>
+      </c>
+      <c r="C81">
+        <v>95320</v>
+      </c>
+      <c r="D81">
+        <v>0.215</v>
+      </c>
+      <c r="E81">
+        <v>38.595999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1621</v>
+      </c>
+      <c r="B82">
+        <v>95705</v>
+      </c>
+      <c r="C82">
+        <v>95420</v>
+      </c>
+      <c r="D82">
+        <v>0.21</v>
+      </c>
+      <c r="E82">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1641</v>
+      </c>
+      <c r="B83">
+        <v>95890</v>
+      </c>
+      <c r="C83">
+        <v>95535</v>
+      </c>
+      <c r="D83">
+        <v>0.16</v>
+      </c>
+      <c r="E83">
+        <v>36.723999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1661</v>
+      </c>
+      <c r="B84">
+        <v>95900</v>
+      </c>
+      <c r="C84">
+        <v>95630</v>
+      </c>
+      <c r="D84">
+        <v>0.155</v>
+      </c>
+      <c r="E84">
+        <v>37.847999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1681</v>
+      </c>
+      <c r="B85">
+        <v>95900</v>
+      </c>
+      <c r="C85">
+        <v>95680</v>
+      </c>
+      <c r="D85">
+        <v>0.15</v>
+      </c>
+      <c r="E85">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1701</v>
+      </c>
+      <c r="B86">
+        <v>96495</v>
+      </c>
+      <c r="C86">
+        <v>95735</v>
+      </c>
+      <c r="D86">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E86">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1721</v>
+      </c>
+      <c r="B87">
+        <v>96495</v>
+      </c>
+      <c r="C87">
+        <v>95870</v>
+      </c>
+      <c r="D87">
+        <v>0.11</v>
+      </c>
+      <c r="E87">
+        <v>32.555999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1741</v>
+      </c>
+      <c r="B88">
+        <v>96495</v>
+      </c>
+      <c r="C88">
+        <v>95900</v>
+      </c>
+      <c r="D88">
+        <v>0.115</v>
+      </c>
+      <c r="E88">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1761</v>
+      </c>
+      <c r="B89">
+        <v>96680</v>
+      </c>
+      <c r="C89">
+        <v>95960</v>
+      </c>
+      <c r="D89">
+        <v>0.12</v>
+      </c>
+      <c r="E89">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1781</v>
+      </c>
+      <c r="B90">
+        <v>96680</v>
+      </c>
+      <c r="C90">
+        <v>95970</v>
+      </c>
+      <c r="D90">
+        <v>0.23</v>
+      </c>
+      <c r="E90">
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1801</v>
+      </c>
+      <c r="B91">
+        <v>96680</v>
+      </c>
+      <c r="C91">
+        <v>96120</v>
+      </c>
+      <c r="D91">
+        <v>0.43</v>
+      </c>
+      <c r="E91">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1821</v>
+      </c>
+      <c r="B92">
+        <v>96680</v>
+      </c>
+      <c r="C92">
+        <v>96570</v>
+      </c>
+      <c r="D92">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E92">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1841</v>
+      </c>
+      <c r="B93">
+        <v>96845</v>
+      </c>
+      <c r="C93">
+        <v>96670</v>
+      </c>
+      <c r="D93">
+        <v>0.04</v>
+      </c>
+      <c r="E93">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1861</v>
+      </c>
+      <c r="B94">
+        <v>96845</v>
+      </c>
+      <c r="C94">
+        <v>96680</v>
+      </c>
+      <c r="D94">
+        <v>0.05</v>
+      </c>
+      <c r="E94">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1881</v>
+      </c>
+      <c r="B95">
+        <v>96845</v>
+      </c>
+      <c r="C95">
+        <v>96680</v>
+      </c>
+      <c r="D95">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E95">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1901</v>
+      </c>
+      <c r="B96">
+        <v>96845</v>
+      </c>
+      <c r="C96">
+        <v>96690</v>
+      </c>
+      <c r="D96">
+        <v>0.155</v>
+      </c>
+      <c r="E96">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1921</v>
+      </c>
+      <c r="B97">
+        <v>96865</v>
+      </c>
+      <c r="C97">
+        <v>96810</v>
+      </c>
+      <c r="D97">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E97">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1941</v>
+      </c>
+      <c r="B98">
+        <v>96880</v>
+      </c>
+      <c r="C98">
+        <v>96845</v>
+      </c>
+      <c r="D98">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E98">
+        <v>21.626000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1961</v>
+      </c>
+      <c r="B99">
+        <v>96890</v>
+      </c>
+      <c r="C99">
+        <v>96850</v>
+      </c>
+      <c r="D99">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E99">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1981</v>
+      </c>
+      <c r="B100">
+        <v>96890</v>
+      </c>
+      <c r="C100">
+        <v>96865</v>
+      </c>
+      <c r="D100">
+        <v>0.03</v>
+      </c>
+      <c r="E100">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2001</v>
+      </c>
+      <c r="B101">
+        <v>96900</v>
+      </c>
+      <c r="C101">
+        <v>96880</v>
+      </c>
+      <c r="D101">
+        <v>0.02</v>
+      </c>
+      <c r="E101">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2021</v>
+      </c>
+      <c r="B102">
+        <v>96910</v>
+      </c>
+      <c r="C102">
+        <v>96890</v>
+      </c>
+      <c r="D102">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E102">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2041</v>
+      </c>
+      <c r="B103">
+        <v>96910</v>
+      </c>
+      <c r="C103">
+        <v>96890</v>
+      </c>
+      <c r="D103">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E103">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2061</v>
+      </c>
+      <c r="B104">
+        <v>96920</v>
+      </c>
+      <c r="C104">
+        <v>96890</v>
+      </c>
+      <c r="D104">
+        <v>0.03</v>
+      </c>
+      <c r="E104">
+        <v>25.667000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2081</v>
+      </c>
+      <c r="B105">
+        <v>97080</v>
+      </c>
+      <c r="C105">
+        <v>96900</v>
+      </c>
+      <c r="D105">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E105">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2101</v>
+      </c>
+      <c r="B106">
+        <v>97100</v>
+      </c>
+      <c r="C106">
+        <v>96910</v>
+      </c>
+      <c r="D106">
+        <v>0.03</v>
+      </c>
+      <c r="E106">
+        <v>23.657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2121</v>
+      </c>
+      <c r="B107">
+        <v>97100</v>
+      </c>
+      <c r="C107">
+        <v>96910</v>
+      </c>
+      <c r="D107">
+        <v>0.04</v>
+      </c>
+      <c r="E107">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2141</v>
+      </c>
+      <c r="B108">
+        <v>97105</v>
+      </c>
+      <c r="C108">
+        <v>96910</v>
+      </c>
+      <c r="D108">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E108">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2161</v>
+      </c>
+      <c r="B109">
+        <v>97105</v>
+      </c>
+      <c r="C109">
+        <v>96910</v>
+      </c>
+      <c r="D109">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E109">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2181</v>
+      </c>
+      <c r="B110">
+        <v>97155</v>
+      </c>
+      <c r="C110">
+        <v>97035</v>
+      </c>
+      <c r="D110">
+        <v>0.105</v>
+      </c>
+      <c r="E110">
+        <v>15.364000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2201</v>
+      </c>
+      <c r="B111">
+        <v>97170</v>
+      </c>
+      <c r="C111">
+        <v>97100</v>
+      </c>
+      <c r="D111">
+        <v>0.06</v>
+      </c>
+      <c r="E111">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2221</v>
+      </c>
+      <c r="B112">
+        <v>97185</v>
+      </c>
+      <c r="C112">
+        <v>97115</v>
+      </c>
+      <c r="D112">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E112">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2241</v>
+      </c>
+      <c r="B113">
+        <v>97210</v>
+      </c>
+      <c r="C113">
+        <v>97150</v>
+      </c>
+      <c r="D113">
+        <v>0.06</v>
+      </c>
+      <c r="E113">
+        <v>21.757999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2261</v>
+      </c>
+      <c r="B114">
+        <v>97225</v>
+      </c>
+      <c r="C114">
+        <v>97165</v>
+      </c>
+      <c r="D114">
+        <v>0.06</v>
+      </c>
+      <c r="E114">
+        <v>23.353999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2281</v>
+      </c>
+      <c r="B115">
+        <v>97225</v>
+      </c>
+      <c r="C115">
+        <v>97180</v>
+      </c>
+      <c r="D115">
+        <v>0.05</v>
+      </c>
+      <c r="E115">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2301</v>
+      </c>
+      <c r="B116">
+        <v>97235</v>
+      </c>
+      <c r="C116">
+        <v>97190</v>
+      </c>
+      <c r="D116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E116">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2321</v>
+      </c>
+      <c r="B117">
+        <v>97260</v>
+      </c>
+      <c r="C117">
+        <v>97200</v>
+      </c>
+      <c r="D117">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E117">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2341</v>
+      </c>
+      <c r="B118">
+        <v>97260</v>
+      </c>
+      <c r="C118">
+        <v>97205</v>
+      </c>
+      <c r="D118">
+        <v>0.06</v>
+      </c>
+      <c r="E118">
+        <v>22.231999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2361</v>
+      </c>
+      <c r="B119">
+        <v>97270</v>
+      </c>
+      <c r="C119">
+        <v>97210</v>
+      </c>
+      <c r="D119">
+        <v>0.06</v>
+      </c>
+      <c r="E119">
+        <v>23.896999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2381</v>
+      </c>
+      <c r="B120">
+        <v>97270</v>
+      </c>
+      <c r="C120">
+        <v>97225</v>
+      </c>
+      <c r="D120">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E120">
+        <v>19.777999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2401</v>
+      </c>
+      <c r="B121">
+        <v>97270</v>
+      </c>
+      <c r="C121">
+        <v>97235</v>
+      </c>
+      <c r="D121">
+        <v>0.04</v>
+      </c>
+      <c r="E121">
+        <v>18.364000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2421</v>
+      </c>
+      <c r="B122">
+        <v>97270</v>
+      </c>
+      <c r="C122">
+        <v>97250</v>
+      </c>
+      <c r="D122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E122">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2441</v>
+      </c>
+      <c r="B123">
+        <v>97270</v>
+      </c>
+      <c r="C123">
+        <v>97260</v>
+      </c>
+      <c r="D123">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E123">
+        <v>20.565999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2461</v>
+      </c>
+      <c r="B124">
+        <v>97280</v>
+      </c>
+      <c r="C124">
+        <v>97260</v>
+      </c>
+      <c r="D124">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E124">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2481</v>
+      </c>
+      <c r="B125">
+        <v>97280</v>
+      </c>
+      <c r="C125">
+        <v>97270</v>
+      </c>
+      <c r="D125">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E125">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2501</v>
+      </c>
+      <c r="B126">
+        <v>97280</v>
+      </c>
+      <c r="C126">
+        <v>97270</v>
+      </c>
+      <c r="D126">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E126">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2521</v>
+      </c>
+      <c r="B127">
+        <v>97280</v>
+      </c>
+      <c r="C127">
+        <v>97280</v>
+      </c>
+      <c r="D127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E127">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2541</v>
+      </c>
+      <c r="B128">
+        <v>97290</v>
+      </c>
+      <c r="C128">
+        <v>97280</v>
+      </c>
+      <c r="D128">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E128">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2561</v>
+      </c>
+      <c r="B129">
+        <v>97290</v>
+      </c>
+      <c r="C129">
+        <v>97280</v>
+      </c>
+      <c r="D129">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E129">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2581</v>
+      </c>
+      <c r="B130">
+        <v>97290</v>
+      </c>
+      <c r="C130">
+        <v>97280</v>
+      </c>
+      <c r="D130">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E130">
+        <v>22.091000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2601</v>
+      </c>
+      <c r="B131">
+        <v>97290</v>
+      </c>
+      <c r="C131">
+        <v>97280</v>
+      </c>
+      <c r="D131">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E131">
+        <v>22.152999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2621</v>
+      </c>
+      <c r="B132">
+        <v>97290</v>
+      </c>
+      <c r="C132">
+        <v>97280</v>
+      </c>
+      <c r="D132">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E132">
+        <v>21.303000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2641</v>
+      </c>
+      <c r="B133">
+        <v>97290</v>
+      </c>
+      <c r="C133">
+        <v>97290</v>
+      </c>
+      <c r="D133">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E133">
+        <v>13.423999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2661</v>
+      </c>
+      <c r="B134">
+        <v>97320</v>
+      </c>
+      <c r="C134">
+        <v>97290</v>
+      </c>
+      <c r="D134">
+        <v>0.01</v>
+      </c>
+      <c r="E134">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2681</v>
+      </c>
+      <c r="B135">
+        <v>97320</v>
+      </c>
+      <c r="C135">
+        <v>97290</v>
+      </c>
+      <c r="D135">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E135">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2701</v>
+      </c>
+      <c r="B136">
+        <v>97330</v>
+      </c>
+      <c r="C136">
+        <v>97290</v>
+      </c>
+      <c r="D136">
+        <v>0.04</v>
+      </c>
+      <c r="E136">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2721</v>
+      </c>
+      <c r="B137">
+        <v>97350</v>
+      </c>
+      <c r="C137">
+        <v>97330</v>
+      </c>
+      <c r="D137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E137">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2741</v>
+      </c>
+      <c r="B138">
+        <v>97350</v>
+      </c>
+      <c r="C138">
+        <v>97330</v>
+      </c>
+      <c r="D138">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E138">
+        <v>11.404</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2761</v>
+      </c>
+      <c r="B139">
+        <v>97360</v>
+      </c>
+      <c r="C139">
+        <v>97340</v>
+      </c>
+      <c r="D139">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E139">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2781</v>
+      </c>
+      <c r="B140">
+        <v>97380</v>
+      </c>
+      <c r="C140">
+        <v>97350</v>
+      </c>
+      <c r="D140">
+        <v>0.02</v>
+      </c>
+      <c r="E140">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2801</v>
+      </c>
+      <c r="B141">
+        <v>97385</v>
+      </c>
+      <c r="C141">
+        <v>97350</v>
+      </c>
+      <c r="D141">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E141">
+        <v>14.602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2821</v>
+      </c>
+      <c r="B142">
+        <v>97385</v>
+      </c>
+      <c r="C142">
+        <v>97360</v>
+      </c>
+      <c r="D142">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E142">
+        <v>14.412000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2841</v>
+      </c>
+      <c r="B143">
+        <v>97385</v>
+      </c>
+      <c r="C143">
+        <v>97360</v>
+      </c>
+      <c r="D143">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E143">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2861</v>
+      </c>
+      <c r="B144">
+        <v>97385</v>
+      </c>
+      <c r="C144">
+        <v>97380</v>
+      </c>
+      <c r="D144">
+        <v>0.01</v>
+      </c>
+      <c r="E144">
+        <v>14.090999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2881</v>
+      </c>
+      <c r="B145">
+        <v>97385</v>
+      </c>
+      <c r="C145">
+        <v>97385</v>
+      </c>
+      <c r="D145">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E145">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2901</v>
+      </c>
+      <c r="B146">
+        <v>97385</v>
+      </c>
+      <c r="C146">
+        <v>97385</v>
+      </c>
+      <c r="D146">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E146">
+        <v>13.282999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2921</v>
+      </c>
+      <c r="B147">
+        <v>97385</v>
+      </c>
+      <c r="C147">
+        <v>97385</v>
+      </c>
+      <c r="D147">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E147">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2941</v>
+      </c>
+      <c r="B148">
+        <v>97385</v>
+      </c>
+      <c r="C148">
+        <v>97385</v>
+      </c>
+      <c r="D148">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E148">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2961</v>
+      </c>
+      <c r="B149">
+        <v>97385</v>
+      </c>
+      <c r="C149">
+        <v>97385</v>
+      </c>
+      <c r="D149">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E149">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2981</v>
+      </c>
+      <c r="B150">
+        <v>97385</v>
+      </c>
+      <c r="C150">
+        <v>97385</v>
+      </c>
+      <c r="D150">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E150">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3001</v>
+      </c>
+      <c r="B151">
+        <v>97385</v>
+      </c>
+      <c r="C151">
+        <v>97385</v>
+      </c>
+      <c r="D151">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E151">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3021</v>
+      </c>
+      <c r="B152">
+        <v>97385</v>
+      </c>
+      <c r="C152">
+        <v>97385</v>
+      </c>
+      <c r="D152">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E152">
+        <v>13.292999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3041</v>
+      </c>
+      <c r="B153">
+        <v>97385</v>
+      </c>
+      <c r="C153">
+        <v>97385</v>
+      </c>
+      <c r="D153">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E153">
+        <v>12.757999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3061</v>
+      </c>
+      <c r="B154">
+        <v>97385</v>
+      </c>
+      <c r="C154">
+        <v>97385</v>
+      </c>
+      <c r="D154">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E154">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3081</v>
+      </c>
+      <c r="B155">
+        <v>97385</v>
+      </c>
+      <c r="C155">
+        <v>97385</v>
+      </c>
+      <c r="D155">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E155">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3101</v>
+      </c>
+      <c r="B156">
+        <v>97385</v>
+      </c>
+      <c r="C156">
+        <v>97385</v>
+      </c>
+      <c r="D156">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E156">
+        <v>12.88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
